--- a/assets/disciplinas/LOM3202.xlsx
+++ b/assets/disciplinas/LOM3202.xlsx
@@ -134,11 +134,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3254 -  Laboratório de Circuitos Elétricos  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3254 -  Laboratório de Circuitos Elétricos  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3202.xlsx
+++ b/assets/disciplinas/LOM3202.xlsx
@@ -134,11 +134,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3254 -  Laboratório de Circuitos Elétricos  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1053 -  Física III  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3202.xlsx
+++ b/assets/disciplinas/LOM3202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar e desenvolver técnicas de análise de circuitos elétricos.</t>
+    <t>5982760 - Carlos Alberto Baldan</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5982760 - Carlos Alberto Baldan</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Elementos de circuitos lineares. Lei de Ohm. Leis de Kirchhoff. Métodos de análise. Teoremas. Circuitos de primeira ordem. Excitação senoidal. Fasores. Análise em regime permanente C.A. Potência em regime permanente C.A. Circuitos Trifásicos. Transformadores. Motores. Simulação computacional.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Elementos de circuitos lineares. Lei de Ohm. Leis de Kirchhoff. Métodos de análise. Teoremas. Circuitos de primeira ordem. Excitação senoidal. Fasores. Análise em regime permanente C.A.. Potência em regime permanente C.A. Circuitos Trifásicos. Transformadores. Motores.  Simulação computacional.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas, aulas de exercícios e estudos de casos por simulação computacional.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas provas escritas: conceitos P1 e P2. Conceito Final = (P1 + 2P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>JOHNSON, D. E. Fundamentos de análise de circuitos elétricos. Prentice Hall, 1994.
-HAYT, W. H. Análise de circuitos em engenharia. McGraw-Hill, 1975.
-DESOER, C. A. Teoria básica de circuitos. Guanabara Dois, 1979.
-SCOTT, R. E. Elements of linear circuits. Addison Wesley.
-EDMINISTER, J. A. Circuitos elétricos. McGraw-Hill.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
